--- a/dataset/datasets.xlsx
+++ b/dataset/datasets.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IoT\7-Agent-Empirical\agents\dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6DC37B-14F7-4E9A-959E-514DF24B292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="2490" yWindow="1820" windowWidth="23140" windowHeight="8140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="web" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="android app" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="android" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="minecraft" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="web" sheetId="1" r:id="rId1"/>
+    <sheet name="android app" sheetId="2" r:id="rId2"/>
+    <sheet name="android" sheetId="3" r:id="rId3"/>
+    <sheet name="minecraft" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,260 +33,258 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
-    <t xml:space="preserve">app name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find a random music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">play a random music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">play a random music for me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search for the capital of US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find the most popular movie this year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find the location of Tencent Shanghai Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tell me the capital of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">play the most popular last year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what date is it today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when is the next Chinese festival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.simplemobiletools.gallery.pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open DCIM folder in gallery app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort folders in gallery by name in descending order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show all contents in all folders within the gallery app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search for the DCIM folder in gallery app and open it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do not display GIF images in the Gallery app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.simplemobiletools.notes.pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a text note named 'NewTextNote'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a checklist note called 'NewCheckList'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete the note 'Diary'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a new note called 'test' and type '123456'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rename the note 'diary' to 'events'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.simplemobiletools.calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a new event, the task is 'laundry', save it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete all the events in the Calendar app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the view from monthly to yearly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add the holidays of China to the calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add the holidays of South Africa to the calendar and list all the events in 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.simplemobiletools.musicplayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the theme of the Music player app to light and save it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set the sleep timer for five minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the 'Recordings' in the Folders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort by year in descending order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Play 'test1' in recordings and set the loop mode to 'loop the current song'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.simplemobiletools.applauncher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search 'Clock' app and open it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort apps by title in descending order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change column count to 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change theme color to light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disable closing this app when launching a different one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.simplemobiletools.voicerecorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hide the recording notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the theme color to white and save it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open "frequently asked questions"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set extension to mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set bitrate to 96 kbps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.simplemobiletools.clock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change alarm max reminder duration to 1 minute in settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the clock page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn on the '7:00 am' alarm clock vibration function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set the sorting order for alarms by 'Day and Alarm time'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set the snooze time to 5 minute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search 'Clock' app and open it, set a 2-minute timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search 'Calendar' app and open it, create a new event, the task is 'daily', save it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search 'Calendar' app and open it, change the view to monthly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search 'Calendar' app and open it, add the holidays of US to the calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search 'Google Map' and open it, find the location of Tencent Shanghai Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search 'Google' and open it, find the capital of US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search 'Clock' app and open it, set the snooze time to 5 minute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obtain_firebrands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acquire_torch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get_planks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obtain_planks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get_two_plank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obtain_timbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get_a_timber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obtain_wooden_slab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obtain_bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obtain_chest_minecart</t>
+    <t>app name</t>
+  </si>
+  <si>
+    <t>task1</t>
+  </si>
+  <si>
+    <t>task2</t>
+  </si>
+  <si>
+    <t>task3</t>
+  </si>
+  <si>
+    <t>task4</t>
+  </si>
+  <si>
+    <t>task5</t>
+  </si>
+  <si>
+    <t>task6</t>
+  </si>
+  <si>
+    <t>task7</t>
+  </si>
+  <si>
+    <t>task8</t>
+  </si>
+  <si>
+    <t>task9</t>
+  </si>
+  <si>
+    <t>task10</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>find a random music</t>
+  </si>
+  <si>
+    <t>play a random music</t>
+  </si>
+  <si>
+    <t>play a random music for me</t>
+  </si>
+  <si>
+    <t>search for the capital of US</t>
+  </si>
+  <si>
+    <t>find the most popular movie this year</t>
+  </si>
+  <si>
+    <t>find the location of Tencent Shanghai Branch</t>
+  </si>
+  <si>
+    <t>tell me the capital of America</t>
+  </si>
+  <si>
+    <t>play the most popular last year</t>
+  </si>
+  <si>
+    <t>what date is it today</t>
+  </si>
+  <si>
+    <t>when is the next Chinese festival</t>
+  </si>
+  <si>
+    <t>app id</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.gallery.pro</t>
+  </si>
+  <si>
+    <t>Open DCIM folder in gallery app</t>
+  </si>
+  <si>
+    <t>Sort folders in gallery by name in descending order</t>
+  </si>
+  <si>
+    <t>Show all contents in all folders within the gallery app</t>
+  </si>
+  <si>
+    <t>Search for the DCIM folder in gallery app and open it</t>
+  </si>
+  <si>
+    <t>Do not display GIF images in the Gallery app</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.notes.pro</t>
+  </si>
+  <si>
+    <t>Create a text note named 'NewTextNote'</t>
+  </si>
+  <si>
+    <t>Create a checklist note called 'NewCheckList'</t>
+  </si>
+  <si>
+    <t>Delete the note 'Diary'</t>
+  </si>
+  <si>
+    <t>Create a new note called 'test' and type '123456'</t>
+  </si>
+  <si>
+    <t>Rename the note 'diary' to 'events'</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.calendar</t>
+  </si>
+  <si>
+    <t>Create a new event, the task is 'laundry', save it</t>
+  </si>
+  <si>
+    <t>Delete all the events in the Calendar app</t>
+  </si>
+  <si>
+    <t>Change the view from monthly to yearly</t>
+  </si>
+  <si>
+    <t>Add the holidays of China to the calendar</t>
+  </si>
+  <si>
+    <t>Add the holidays of South Africa to the calendar and list all the events in 2023</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.musicplayer</t>
+  </si>
+  <si>
+    <t>Change the theme of the Music player app to light and save it</t>
+  </si>
+  <si>
+    <t>Set the sleep timer for five minutes</t>
+  </si>
+  <si>
+    <t>Check the 'Recordings' in the Folders</t>
+  </si>
+  <si>
+    <t>Sort by year in descending order</t>
+  </si>
+  <si>
+    <t>Play 'test1' in recordings and set the loop mode to 'loop the current song'</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.applauncher</t>
+  </si>
+  <si>
+    <t>search 'Clock' app and open it</t>
+  </si>
+  <si>
+    <t>Sort apps by title in descending order</t>
+  </si>
+  <si>
+    <t>Change column count to 3</t>
+  </si>
+  <si>
+    <t>Change theme color to light</t>
+  </si>
+  <si>
+    <t>Disable closing this app when launching a different one</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.voicerecorder</t>
+  </si>
+  <si>
+    <t>Hide the recording notification</t>
+  </si>
+  <si>
+    <t>Change the theme color to white and save it</t>
+  </si>
+  <si>
+    <t>Open "frequently asked questions"</t>
+  </si>
+  <si>
+    <t>Set extension to mp3</t>
+  </si>
+  <si>
+    <t>Set bitrate to 96 kbps</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.clock</t>
+  </si>
+  <si>
+    <t>Change alarm max reminder duration to 1 minute in settings</t>
+  </si>
+  <si>
+    <t>Open the clock page</t>
+  </si>
+  <si>
+    <t>Turn on the '7:00 am' alarm clock vibration function</t>
+  </si>
+  <si>
+    <t>Set the sorting order for alarms by 'Day and Alarm time'</t>
+  </si>
+  <si>
+    <t>Set the snooze time to 5 minute</t>
+  </si>
+  <si>
+    <t>search 'Clock' app and open it, set a 2-minute timer</t>
+  </si>
+  <si>
+    <t>search 'Calendar' app and open it, create a new event, the task is 'daily', save it</t>
+  </si>
+  <si>
+    <t>search 'Calendar' app and open it, change the view to monthly</t>
+  </si>
+  <si>
+    <t>search 'Calendar' app and open it, add the holidays of US to the calendar</t>
+  </si>
+  <si>
+    <t>search 'Google Map' and open it, find the location of Tencent Shanghai Branch</t>
+  </si>
+  <si>
+    <t>search 'Google' and open it, find the capital of US</t>
+  </si>
+  <si>
+    <t>search 'Clock' app and open it, set the snooze time to 5 minute</t>
+  </si>
+  <si>
+    <t>acquire_torch</t>
+  </si>
+  <si>
+    <t>get_planks</t>
+  </si>
+  <si>
+    <t>obtain_planks</t>
+  </si>
+  <si>
+    <t>get_two_plank</t>
+  </si>
+  <si>
+    <t>obtain_timbers</t>
+  </si>
+  <si>
+    <t>get_a_timber</t>
+  </si>
+  <si>
+    <t>obtain_wooden_slab</t>
+  </si>
+  <si>
+    <t>obtain_bed</t>
+  </si>
+  <si>
+    <t>obtain_chest_minecart</t>
+  </si>
+  <si>
+    <t>obtain_firebrands</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -287,22 +293,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -323,6 +314,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -339,14 +336,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -362,65 +359,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -479,28 +443,336 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.33"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="63.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:19" ht="63" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -579,33 +851,26 @@
       <c r="S2" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.42"/>
+    <col min="1" max="1" width="25.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -637,7 +902,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="76" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" ht="75.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -668,7 +933,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="76" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:18" ht="75.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -699,7 +964,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="113.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:18" ht="113" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -731,7 +996,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="113.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:18" ht="113" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -763,7 +1028,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="76" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:18" ht="75.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -795,7 +1060,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="63.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:18" ht="63" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
@@ -826,7 +1091,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="88.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:18" ht="88" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
@@ -858,30 +1123,23 @@
       <c r="R8" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +1174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="113.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="113" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -952,30 +1210,23 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,58 +1261,58 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="38" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E5" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E7" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
